--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -156,10 +156,10 @@
     <t>prob of FHRN,BPN,CLN,Cephalic,Anterior,AFYA</t>
   </si>
   <si>
-    <t>0.010728&gt;0, hence Ceasar</t>
-  </si>
-  <si>
-    <t>0.415241&gt;0.075703, hence Normal</t>
+    <t>0.004291&gt;0, hence Ceasar</t>
+  </si>
+  <si>
+    <t>0.249145&gt;0.030281, hence Normal</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <f>1*1*0*0.875*0.67*0.71</f>
+        <f>1*1*0*0.875*0.67*0.71*0.6</f>
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2068,8 +2068,8 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <f>1*0.93*0.125*0.375*0.4375*0.5625</f>
-        <v>1.0728149414062501E-2</v>
+        <f>1*0.93*0.125*0.375*0.4375*0.5625*0.4</f>
+        <v>4.2912597656250004E-3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2085,8 +2085,8 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <f>1*1*1*0.875*0.67*0.7083</f>
-        <v>0.41524087500000006</v>
+        <f>1*1*1*0.875*0.67*0.7083*0.6</f>
+        <v>0.24914452500000003</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>46</v>
@@ -2097,8 +2097,8 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <f>1*0.9375*0.875*0.375*0.4375*0.5625</f>
-        <v>7.5702667236328125E-2</v>
+        <f>1*0.9375*0.875*0.375*0.4375*0.5625*0.4</f>
+        <v>3.028106689453125E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="51">
   <si>
     <t>Sr No</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>0.249145&gt;0.030281, hence Normal</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>normal=22</t>
+  </si>
+  <si>
+    <t>ceaser=10</t>
   </si>
 </sst>
 </file>
@@ -555,7 +567,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1646,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2062,6 +2074,9 @@
       <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
@@ -2071,6 +2086,9 @@
         <f>1*0.93*0.125*0.375*0.4375*0.5625*0.4</f>
         <v>4.2912597656250004E-3</v>
       </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
@@ -2099,6 +2117,24 @@
       <c r="B17">
         <f>1*0.9375*0.875*0.375*0.4375*0.5625*0.4</f>
         <v>3.028106689453125E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <f>1*1*1*0.041667*0.66667*0.291667*0.6</f>
+        <v>4.8611798613777775E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <f>1*0.9375*0.875*0.25*0.4375*0.4375*0.4</f>
+        <v>1.57012939453125E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgce\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975" activeTab="1"/>
   </bookViews>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
   <si>
     <t>Sr No</t>
   </si>
@@ -117,9 +122,6 @@
     <t>Cephalic</t>
   </si>
   <si>
-    <t>Vertex</t>
-  </si>
-  <si>
     <t>Transverse</t>
   </si>
   <si>
@@ -172,13 +174,25 @@
   </si>
   <si>
     <t>ceaser=10</t>
+  </si>
+  <si>
+    <t>oociput</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>placental abruption</t>
+  </si>
+  <si>
+    <t>brow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +290,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -322,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,9 +376,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,6 +411,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,14 +587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -581,7 +605,7 @@
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -636,7 +660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -662,7 +686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -688,7 +712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -714,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -740,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -766,7 +790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -792,7 +816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -818,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -844,7 +868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -870,7 +894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -896,7 +920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -922,7 +946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -948,7 +972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -974,7 +998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1000,7 +1024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1026,7 +1050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1052,7 +1076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1078,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1130,7 +1154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1156,7 +1180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1182,7 +1206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1208,7 +1232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1234,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1260,7 +1284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1286,7 +1310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1312,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1338,7 +1362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1364,7 +1388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1390,7 +1414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1416,7 +1440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1442,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1468,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1494,7 +1518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1520,7 +1544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1546,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1572,7 +1596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1598,7 +1622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1624,7 +1648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1657,21 +1681,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1700,34 +1724,43 @@
         <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="T1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1750,40 +1783,49 @@
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
       </c>
       <c r="J2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4">
         <v>16</v>
       </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
       <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
         <v>7</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="T2" s="4">
         <v>17</v>
       </c>
-      <c r="R2" s="8">
+      <c r="U2" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1806,46 +1848,55 @@
         <v>2</v>
       </c>
       <c r="H3" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
         <v>5</v>
       </c>
       <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>7</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>7</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>1</v>
       </c>
-      <c r="O3" s="4">
+      <c r="Q3" s="4">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
         <v>7</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="T3" s="4">
         <v>9</v>
       </c>
-      <c r="R3" s="8">
+      <c r="U3" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <f>B2+B3</f>
         <v>40</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" ref="C4:R4" si="0">C2+C3</f>
+        <f t="shared" ref="C4:U4" si="0">C2+C3</f>
         <v>0</v>
       </c>
       <c r="D4" s="7">
@@ -1866,204 +1917,236 @@
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M4" s="7">
+      <c r="O4" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="N4" s="7">
+      <c r="P4" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O4" s="7">
+      <c r="Q4" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P4" s="7">
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="T4" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="R4" s="7">
+      <c r="U4" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <f>B2/R2</f>
+        <f>B2/U2</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>C2/R2</f>
+        <f>C2/U2</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>D2/R2</f>
+        <f>D2/U2</f>
         <v>1</v>
       </c>
       <c r="E6">
-        <f>E2/R2</f>
+        <f>E2/U2</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>F2/R2</f>
+        <f>F2/U2</f>
         <v>1</v>
       </c>
       <c r="G6">
-        <f>G2/R2</f>
+        <f>G2/U2</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>H2/R2</f>
-        <v>0.875</v>
+        <f>H2/U2</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I6">
-        <f>I2/R2</f>
+        <f>I2/U2</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J6">
-        <f>J2/R2</f>
+        <f>J2/U2</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>K2/U2</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K6">
-        <f>K2/R2</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
       <c r="L6">
-        <f>L2/R2</f>
+        <f>L2/U2</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>M2/U2</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>N2/U2</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M6">
-        <f>M2/R2</f>
+      <c r="O6">
+        <f>O2/U2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N6">
-        <f>N2/R2</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>O2/R2</f>
-        <v>0</v>
-      </c>
       <c r="P6">
-        <f>P2/R2</f>
+        <f>P2/U2</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>Q2/U2</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>R2/U2</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>S2/U2</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="Q6">
-        <f>Q2/R2</f>
+      <c r="T6">
+        <f>T2/U2</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="R6">
-        <f>R2/R4</f>
+      <c r="U6">
+        <f>U2/U4</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7">
-        <f>B3/R3</f>
+        <f>B3/U3</f>
         <v>1</v>
       </c>
       <c r="C7">
-        <f>C3/R3</f>
+        <f>C3/U3</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>D3/R3</f>
+        <f>D3/U3</f>
         <v>0.9375</v>
       </c>
       <c r="E7">
-        <f>E3/R3</f>
+        <f>E3/U3</f>
         <v>6.25E-2</v>
       </c>
       <c r="F7">
-        <f>F3/R3</f>
+        <f>F3/U3</f>
         <v>0.875</v>
       </c>
       <c r="G7">
-        <f>G3/R3</f>
+        <f>G3/U3</f>
         <v>0.125</v>
       </c>
       <c r="H7">
-        <f>H3/R3</f>
-        <v>0.375</v>
+        <f>H3/U3</f>
+        <v>0.625</v>
       </c>
       <c r="I7">
-        <f>I3/R3</f>
-        <v>0.25</v>
+        <f>I3/U3</f>
+        <v>6.25E-2</v>
       </c>
       <c r="J7">
-        <f>J3/R3</f>
+        <f>J3/U3</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>K3/U3</f>
+        <v>0.3125</v>
+      </c>
+      <c r="L7">
+        <f>L3/U3</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>M3/U3</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>N3/U3</f>
+        <v>0.4375</v>
+      </c>
+      <c r="O7">
+        <f>O3/U3</f>
+        <v>0.4375</v>
+      </c>
+      <c r="P7">
+        <f>P3/U3</f>
         <v>6.25E-2</v>
       </c>
-      <c r="K7">
-        <f>K3/R3</f>
-        <v>0.3125</v>
-      </c>
-      <c r="L7">
-        <f>L3/R3</f>
+      <c r="Q7">
+        <f>Q3/U3</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="R7">
+        <f>R3/U3</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>S3/U3</f>
         <v>0.4375</v>
       </c>
-      <c r="M7">
-        <f>M3/R3</f>
-        <v>0.4375</v>
-      </c>
-      <c r="N7">
-        <f>N3/R3</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="O7">
-        <f>O3/R3</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="P7">
-        <f>P3/R3</f>
-        <v>0.4375</v>
-      </c>
-      <c r="Q7">
-        <f>Q3/R3</f>
+      <c r="T7">
+        <f>T3/U3</f>
         <v>0.5625</v>
       </c>
-      <c r="R7">
-        <f>R3/40</f>
+      <c r="U7">
+        <f>U3/40</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2072,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2086,19 +2169,19 @@
         <f>1*0.93*0.125*0.375*0.4375*0.5625*0.4</f>
         <v>4.2912597656250004E-3</v>
       </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2107,10 +2190,10 @@
         <v>0.24914452500000003</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2119,18 +2202,18 @@
         <v>3.028106689453125E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <f>1*1*1*0.041667*0.66667*0.291667*0.6</f>
         <v>4.8611798613777775E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <f>1*0.9375*0.875*0.25*0.4375*0.4375*0.4</f>
@@ -2144,12 +2227,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgce\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975" activeTab="1"/>
   </bookViews>
@@ -191,8 +186,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,10 +371,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +405,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,14 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -605,7 +598,7 @@
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -660,7 +653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -686,7 +679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -712,7 +705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -738,7 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -764,7 +757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -790,7 +783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -816,7 +809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -842,7 +835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -868,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -894,7 +887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -920,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -946,7 +939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -972,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -998,7 +991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1024,7 +1017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1050,7 +1043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1076,7 +1069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1102,7 +1095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1128,7 +1121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1154,7 +1147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1180,7 +1173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1206,7 +1199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1232,7 +1225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1258,7 +1251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1284,7 +1277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1310,7 +1303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1336,7 +1329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1362,7 +1355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1388,7 +1381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1414,7 +1407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1440,7 +1433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1466,7 +1459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1492,7 +1485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1518,7 +1511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1544,7 +1537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1570,7 +1563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1596,7 +1589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1648,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1681,21 +1674,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="10" width="10.85546875" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1760,7 +1753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1890,7 +1883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="7">
         <f>B2+B3</f>
         <v>40</v>
@@ -1968,7 +1961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2046,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2131,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2146,7 +2139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2161,7 +2154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2173,7 +2166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2181,7 +2174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2202,7 +2195,7 @@
         <v>3.028106689453125E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2211,7 +2204,7 @@
         <v>4.8611798613777775E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2227,12 +2220,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studio Projects\LaborPredictor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975" activeTab="1"/>
   </bookViews>
@@ -186,8 +191,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +376,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +411,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,14 +587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -598,7 +605,7 @@
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -653,7 +660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -673,13 +680,13 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -699,13 +706,13 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8.18</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -725,13 +732,13 @@
         <v>11</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -757,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -783,7 +790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -809,7 +816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -835,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -861,7 +868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -887,7 +894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -913,7 +920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -939,7 +946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -965,7 +972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -991,7 +998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1043,7 +1050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1069,7 +1076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1121,7 +1128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1251,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1355,7 +1362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1381,7 +1388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1485,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1537,7 +1544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1563,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1589,7 +1596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1641,7 +1648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1674,21 +1681,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="10" width="10.85546875" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1753,7 +1760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1809,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="T2" s="4">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="U2" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1874,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="S3" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T3" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U3" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <f>B2+B3</f>
         <v>40</v>
@@ -1950,18 +1957,18 @@
       </c>
       <c r="S4" s="7">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>T2+T3</f>
+        <v>10</v>
       </c>
       <c r="U4" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2035,18 +2042,18 @@
       </c>
       <c r="S6">
         <f>S2/U2</f>
-        <v>0.29166666666666669</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="T6">
-        <f>T2/U2</f>
-        <v>0.70833333333333337</v>
+        <f xml:space="preserve"> T2/U2</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U6">
         <f>U2/U4</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2120,18 +2127,18 @@
       </c>
       <c r="S7">
         <f>S3/U3</f>
-        <v>0.4375</v>
+        <v>0.625</v>
       </c>
       <c r="T7">
         <f>T3/U3</f>
-        <v>0.5625</v>
+        <v>0.375</v>
       </c>
       <c r="U7">
         <f>U3/40</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2139,7 +2146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2166,7 +2173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2174,7 +2181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2186,7 +2193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2195,7 +2202,7 @@
         <v>3.028106689453125E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>4.8611798613777775E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2220,12 +2227,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studio Projects\LaborPredictor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975" activeTab="1"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -158,12 +153,6 @@
     <t>prob of FHRN,BPN,CLN,Cephalic,Anterior,AFYA</t>
   </si>
   <si>
-    <t>0.004291&gt;0, hence Ceasar</t>
-  </si>
-  <si>
-    <t>0.249145&gt;0.030281, hence Normal</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -186,13 +175,19 @@
   </si>
   <si>
     <t>brow</t>
+  </si>
+  <si>
+    <t>0.004807&gt;0, hence Ceasar</t>
+  </si>
+  <si>
+    <t>0.061111&gt;0.0.033646, hence Normal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,10 +371,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +405,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,14 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -605,7 +598,7 @@
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -660,7 +653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -686,7 +679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -712,7 +705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -738,7 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -764,7 +757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -790,7 +783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -816,7 +809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -842,7 +835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -868,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -894,7 +887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -920,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -946,7 +939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -972,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -998,7 +991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1024,7 +1017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1050,7 +1043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1076,7 +1069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1102,7 +1095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1128,7 +1121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1154,7 +1147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1180,7 +1173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1206,7 +1199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1232,7 +1225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1258,7 +1251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1284,7 +1277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1310,7 +1303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1336,7 +1329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1362,7 +1355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1388,7 +1381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1414,7 +1407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1440,7 +1433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1466,7 +1459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1492,7 +1485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1518,7 +1511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1544,7 +1537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1570,7 +1563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1596,7 +1589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1648,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1681,21 +1674,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="10" width="10.85546875" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1724,16 +1717,16 @@
         <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>34</v>
@@ -1748,7 +1741,7 @@
         <v>39</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>36</v>
@@ -1760,7 +1753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1890,7 +1883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="7">
         <f>B2+B3</f>
         <v>40</v>
@@ -1968,7 +1961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2046,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2131,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2146,34 +2139,34 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <f>1*1*0*0.875*0.67*0.71*0.6</f>
+        <f>1*1*0*0.916667*0.67*0.166667*0.6</f>
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13">
-        <f>1*0.93*0.125*0.375*0.4375*0.5625*0.4</f>
-        <v>4.2912597656250004E-3</v>
+        <f>1*0.9375*0.125*0.625*0.4375*0.375*0.4</f>
+        <v>4.8065185546875E-3</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2181,39 +2174,39 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16">
-        <f>1*1*1*0.875*0.67*0.7083*0.6</f>
-        <v>0.24914452500000003</v>
+        <f>1*1*1*0.916667*0.666667*0.166667*0.6</f>
+        <v>6.1111286111227778E-2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17">
-        <f>1*0.9375*0.875*0.375*0.4375*0.5625*0.4</f>
-        <v>3.028106689453125E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <f>1*0.9375*0.875*0.625*0.4375*0.375*0.4</f>
+        <v>3.36456298828125E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <f>1*1*1*0.041667*0.66667*0.291667*0.6</f>
         <v>4.8611798613777775E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <f>1*0.9375*0.875*0.25*0.4375*0.4375*0.4</f>
@@ -2227,12 +2220,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="55">
   <si>
     <t>Sr No</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>0.061111&gt;0.0.033646, hence Normal</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -583,8 +586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1356,8 +1360,8 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>54</v>
       </c>
       <c r="C30">
         <v>150</v>
@@ -1677,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>

--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
   <si>
     <t>Sr No</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>0.061111&gt;0.0.033646, hence Normal</t>
-  </si>
-  <si>
-    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -587,8 +584,8 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1360,8 +1357,8 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>54</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="C30">
         <v>150</v>

--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studio Projects\LaborPredictor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$I$41</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -158,12 +153,6 @@
     <t>prob of FHRN,BPN,CLN,Cephalic,Anterior,AFYA</t>
   </si>
   <si>
-    <t>0.004291&gt;0, hence Ceasar</t>
-  </si>
-  <si>
-    <t>0.249145&gt;0.030281, hence Normal</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -186,13 +175,19 @@
   </si>
   <si>
     <t>brow</t>
+  </si>
+  <si>
+    <t>0.004807&gt;0, hence Ceasar</t>
+  </si>
+  <si>
+    <t>0.061111&gt;0.0.033646, hence Normal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,10 +371,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +405,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,14 +580,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -605,7 +599,7 @@
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -660,7 +654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -686,7 +680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -712,7 +706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -738,7 +732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -764,7 +758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -790,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -816,7 +810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -842,7 +836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -868,7 +862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -894,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -920,7 +914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -946,7 +940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -972,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -998,7 +992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1024,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1050,7 +1044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1102,7 +1096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1154,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1180,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1206,7 +1200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1258,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1310,7 +1304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1336,7 +1330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1362,7 +1356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1388,7 +1382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1414,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1440,7 +1434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1466,7 +1460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1492,7 +1486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1518,7 +1512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1544,7 +1538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1570,7 +1564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1596,7 +1590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1622,7 +1616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1648,7 +1642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1681,21 +1675,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="9" max="10" width="10.85546875" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1724,16 +1718,16 @@
         <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>34</v>
@@ -1748,7 +1742,7 @@
         <v>39</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>36</v>
@@ -1760,7 +1754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="7">
         <f>B2+B3</f>
         <v>40</v>
@@ -1968,7 +1962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2047,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2132,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2146,34 +2140,34 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <f>1*1*0*0.875*0.67*0.71*0.6</f>
+        <f>1*1*0*0.916667*0.67*0.166667*0.6</f>
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13">
-        <f>1*0.93*0.125*0.375*0.4375*0.5625*0.4</f>
-        <v>4.2912597656250004E-3</v>
+        <f>1*0.9375*0.125*0.625*0.4375*0.375*0.4</f>
+        <v>4.8065185546875E-3</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2181,39 +2175,39 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16">
-        <f>1*1*1*0.875*0.67*0.7083*0.6</f>
-        <v>0.24914452500000003</v>
+        <f>1*1*1*0.916667*0.666667*0.166667*0.6</f>
+        <v>6.1111286111227778E-2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17">
-        <f>1*0.9375*0.875*0.375*0.4375*0.5625*0.4</f>
-        <v>3.028106689453125E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <f>1*0.9375*0.875*0.625*0.4375*0.375*0.4</f>
+        <v>3.36456298828125E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <f>1*1*1*0.041667*0.66667*0.291667*0.6</f>
         <v>4.8611798613777775E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <f>1*0.9375*0.875*0.25*0.4375*0.4375*0.4</f>
@@ -2227,12 +2221,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Labor Predictor Data.xlsx
+++ b/Labor Predictor Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="52">
   <si>
     <t>Sr No</t>
   </si>
@@ -48,9 +48,6 @@
     <t>normal</t>
   </si>
   <si>
-    <t>adequate</t>
-  </si>
-  <si>
     <t>cephalic</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>anterior</t>
-  </si>
-  <si>
-    <t>vertex</t>
   </si>
   <si>
     <t>transverse</t>
@@ -187,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +208,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,11 +279,860 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="121">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -583,9 +1432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,11 +1470,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>22</v>
+      <c r="H1" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -642,42 +1491,42 @@
         <v>2.8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3">
+        <v>150</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="E3">
+        <v>2.5</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -694,16 +1543,16 @@
         <v>3.5</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>8.18</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -716,20 +1565,20 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
+      <c r="E5">
+        <v>2.5</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>9.1999999999999993</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -746,16 +1595,16 @@
         <v>3.38</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>6.45</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -772,16 +1621,16 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -798,16 +1647,16 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -820,20 +1669,20 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
+      <c r="E9">
+        <v>2.5</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1">
         <v>8.8000000000000007</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -850,16 +1699,16 @@
         <v>3.3</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>7.5</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -876,16 +1725,16 @@
         <v>3.5</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1">
         <v>8.6</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -896,22 +1745,22 @@
         <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -928,16 +1777,16 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -948,22 +1797,22 @@
         <v>163</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1">
         <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -980,16 +1829,16 @@
         <v>2.9</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15">
         <v>6.5</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1006,16 +1855,16 @@
         <v>3.1</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1">
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1032,16 +1881,16 @@
         <v>3.7</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>7.2</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1058,16 +1907,16 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="1">
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1084,16 +1933,16 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="1">
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1110,16 +1959,16 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1136,16 +1985,16 @@
         <v>3.3</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1">
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1162,16 +2011,16 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1188,16 +2037,16 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1">
         <v>8.9</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1214,16 +2063,16 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="1">
         <v>8.9</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1240,16 +2089,16 @@
         <v>3.3</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>6.2</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1266,16 +2115,16 @@
         <v>4.5</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>6.9</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1292,16 +2141,16 @@
         <v>3.3</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H27" s="1">
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1318,16 +2167,16 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>4.4000000000000004</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1344,16 +2193,16 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>4.4000000000000004</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1370,16 +2219,16 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="1">
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1396,16 +2245,16 @@
         <v>3.2</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31">
         <v>6.5</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1422,16 +2271,16 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="1">
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1448,16 +2297,16 @@
         <v>3.2</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="1">
         <v>8.9</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1474,16 +2323,16 @@
         <v>4.5</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="1">
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1500,16 +2349,16 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35">
         <v>5.6</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1526,16 +2375,16 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" s="1">
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1552,16 +2401,16 @@
         <v>3.2</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <v>6.9</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1578,16 +2427,16 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="1">
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1604,16 +2453,16 @@
         <v>3.9</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="1">
         <v>8.6</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1630,16 +2479,16 @@
         <v>4.3</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="1">
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1656,19 +2505,77 @@
         <v>5.2</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="1">
         <v>9.1999999999999993</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H1048576">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="between">
+      <formula>7</formula>
+      <formula>18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="lessThan">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
+      <formula>18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="between">
+      <formula>100</formula>
+      <formula>165</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+      <formula>"abnormal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+      <formula>"normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+      <formula>2.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
+      <formula>2.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"transverse"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"breech"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"placenta pravia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"placenta bleeding"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1678,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1691,67 +2598,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1765,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
         <v>24</v>
@@ -1821,7 +2728,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4">
         <v>16</v>
@@ -1895,11 +2802,11 @@
       </c>
       <c r="D4" s="7">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
@@ -1976,11 +2883,11 @@
       </c>
       <c r="D6">
         <f>D2/U2</f>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E6">
         <f>E2/U2</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F6">
         <f>F2/U2</f>
@@ -2049,7 +2956,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <f>B3/U3</f>
@@ -2134,10 +3041,10 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2149,30 +3056,30 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <f>1*0.9375*0.125*0.625*0.4375*0.375*0.4</f>
         <v>4.8065185546875E-3</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2184,12 +3091,12 @@
         <v>6.1111286111227778E-2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <f>1*0.9375*0.875*0.625*0.4375*0.375*0.4</f>
@@ -2198,7 +3105,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <f>1*1*1*0.041667*0.66667*0.291667*0.6</f>
@@ -2207,7 +3114,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <f>1*0.9375*0.875*0.25*0.4375*0.4375*0.4</f>
